--- a/TestFile/NHANVIENDAO.xlsx
+++ b/TestFile/NHANVIENDAO.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>Dự án</t>
   </si>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -810,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1179,14 +1179,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="20.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="12.447619047619" customWidth="1"/>
-    <col min="3" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="10.447619047619" customWidth="1"/>
-    <col min="5" max="5" width="12.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="11.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.552380952381" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.447619047619" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.552380952381" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.447619047619" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.552380952381" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.8857142857143" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.6666666666667" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1388,17 +1388,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="29.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="16.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="10.847619047619" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.44761904761905" customWidth="1"/>
-    <col min="8" max="8" width="10.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="26.7809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7809523809524" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.8857142857143" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.6666666666667" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.7809523809524" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.847619047619" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.3333333333333" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.44761904761905" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="10.7809523809524" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="8.33333333333333" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="26.7809523809524" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1530,18 +1530,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.447619047619" customWidth="1"/>
-    <col min="5" max="5" width="10.847619047619" customWidth="1"/>
-    <col min="6" max="6" width="17.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" customWidth="1"/>
-    <col min="8" max="8" width="14.2190476190476" customWidth="1"/>
-    <col min="9" max="9" width="15.1142857142857" customWidth="1"/>
-    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.11428571428571" customWidth="1"/>
-    <col min="12" max="12" width="9.88571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.8857142857143" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.6666666666667" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="13.447619047619" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.847619047619" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.552380952381" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.2190476190476" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="14.2190476190476" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="15.1142857142857" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.3333333333333" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="9.11428571428571" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="9.88571428571429" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1707,17 +1707,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="29.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="16.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="10.847619047619" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.44761904761905" customWidth="1"/>
-    <col min="8" max="8" width="10.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="26.7809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7809523809524" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.8857142857143" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.6666666666667" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.7809523809524" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.847619047619" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.3333333333333" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.44761904761905" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="10.7809523809524" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="8.33333333333333" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="26.7809523809524" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
